--- a/q.xlsx
+++ b/q.xlsx
@@ -1,23 +1,345 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
+    <sheet name="commands of Git" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="B11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>%H Хеш коммита
+%h Сокращенный хеш коммита
+%T Хеш дерева
+%t Сокращенный хеш дерева
+%P Хеш родителей
+%p Сокращенный хеш родителей
+%an Имя автора
+%ae Электронная почта автора
+%ad Дата автора (формат даты можно задать опцией --date=option)
+%ar Относительная дата автора
+%cn Имя коммитера
+%ce Электронная почта коммитера
+%cd Дата коммитера
+%cr Относительная дата коммитера
+%s Содержание</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>--since, --after Показывает только те коммиты, которые были сделаны после указанной даты.
+--until, --before Показывает только те коммиты, которые были сделаны до указанной даты.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Эта команда срабатывает только в случае, если вы клонировали с сервера, на котором у вас есть права на запись, и если никто другой с тех пор не выполнял команду push.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+  <si>
+    <t>git config --list</t>
+  </si>
+  <si>
+    <t>показать все настройки</t>
+  </si>
+  <si>
+    <t>git --help</t>
+  </si>
+  <si>
+    <t>помощь</t>
+  </si>
+  <si>
+    <t>git init</t>
+  </si>
+  <si>
+    <t>создаёт в текущей директории новую поддиректорию с именем .git</t>
+  </si>
+  <si>
+    <t>git add имя файла</t>
+  </si>
+  <si>
+    <t>добавить под версионный контроль существующие файлы (нужно вводить имя с типом файла)</t>
+  </si>
+  <si>
+    <t>git commit -m "коментарий к коммиту"</t>
+  </si>
+  <si>
+    <t>создание коммита</t>
+  </si>
+  <si>
+    <t>git log</t>
+  </si>
+  <si>
+    <t>список коммитов</t>
+  </si>
+  <si>
+    <t>git log -p -2</t>
+  </si>
+  <si>
+    <t>варгумент -p показывает разницу внесенную в каждый коммит, -2 устанавливает лимит на вывод</t>
+  </si>
+  <si>
+    <t>git log --stat</t>
+  </si>
+  <si>
+    <t>сокращенная статистика для каждого коммита</t>
+  </si>
+  <si>
+    <t>git log --pretty=oneline</t>
+  </si>
+  <si>
+    <t>выводит каждый коммит в одну строку</t>
+  </si>
+  <si>
+    <t>git log --pretty=short, full, fuller</t>
+  </si>
+  <si>
+    <t>выбрав short, full и fuller выводятся коммиты с меньшим или большим количеством информации</t>
+  </si>
+  <si>
+    <t>git log --pretty=format:"%h, %an, %ar, %s"</t>
+  </si>
+  <si>
+    <t>format позволяет задавать формат вывода (в примечании опции)</t>
+  </si>
+  <si>
+    <t>git log --pretty=format:"%h %s" --graph</t>
+  </si>
+  <si>
+    <t>выводит граф, который показывает текущую ветку и историю слияний</t>
+  </si>
+  <si>
+    <t>git log --since=2.weeks</t>
+  </si>
+  <si>
+    <t>покажет список коммитов, сделанных за последние две недели (в примечании опции)</t>
+  </si>
+  <si>
+    <t>git log --author "Alex" --grep "demo" --all-match</t>
+  </si>
+  <si>
+    <t>покажет список коммитов отфильтровав по имени и ключевым словам в коментарии, --all-match позволяет фильтровать поавтору и ключевым словам одновременно</t>
+  </si>
+  <si>
+    <t>git clone https://github.com/libgit2/libgit2</t>
+  </si>
+  <si>
+    <t>Клонирование репозитория</t>
+  </si>
+  <si>
+    <t>git status</t>
+  </si>
+  <si>
+    <t>Определение состояния файлов</t>
+  </si>
+  <si>
+    <t>git status -s</t>
+  </si>
+  <si>
+    <t>Определение состояния файлов сокращенное</t>
+  </si>
+  <si>
+    <t>echo 'My Project' &gt; имя файла</t>
+  </si>
+  <si>
+    <t>добавление в проект файла</t>
+  </si>
+  <si>
+    <t>добавить под версионный контроль, начать отслеживание файла</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t>индексирует изменения, готовит к коммиту</t>
+  </si>
+  <si>
+    <t>git diff</t>
+  </si>
+  <si>
+    <t>чтобы увидеть, что же вы изменили, но пока не проиндексировали</t>
+  </si>
+  <si>
+    <t>git diff --staged</t>
+  </si>
+  <si>
+    <t>Если нужно посмотреть, что проиндексировано и что войдёт в следующий коммит</t>
+  </si>
+  <si>
+    <t>git rm demo</t>
+  </si>
+  <si>
+    <t>индекирует удаление файла demo в Git полностью, он удалится при следующем коммите</t>
+  </si>
+  <si>
+    <t>git rm --cached demo</t>
+  </si>
+  <si>
+    <t>индекирует удаление файла demo в Git из под слежения, файл из папки не удалится</t>
+  </si>
+  <si>
+    <t>git rm \*~</t>
+  </si>
+  <si>
+    <t>удаляет файлы которые заканчиваются на  ~</t>
+  </si>
+  <si>
+    <t>git mv file_from file_to</t>
+  </si>
+  <si>
+    <t>перемещение файла</t>
+  </si>
+  <si>
+    <t>git remote</t>
+  </si>
+  <si>
+    <t>список настроенных удалённых репозиториев</t>
+  </si>
+  <si>
+    <t>git remote -v</t>
+  </si>
+  <si>
+    <t>просмотреть адреса для чтения и записи, привязанные к репозиторию</t>
+  </si>
+  <si>
+    <t>git fetch origin</t>
+  </si>
+  <si>
+    <t>получить изменения из файла origin, если файл находится удаленно, нужно указать url в конце</t>
+  </si>
+  <si>
+    <t>git push origin master</t>
+  </si>
+  <si>
+    <t>команда для отправки наработок на сервер</t>
+  </si>
+  <si>
+    <t>git remote show origin</t>
+  </si>
+  <si>
+    <t>получить побольше информации об одном из удалённых репозиториев</t>
+  </si>
+  <si>
+    <t>git remote rename pb paul</t>
+  </si>
+  <si>
+    <t>для переименования ссылок</t>
+  </si>
+  <si>
+    <t>git remote rm paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">удалить ссылку </t>
+  </si>
+  <si>
+    <t>git tag</t>
+  </si>
+  <si>
+    <t>просмотр меток</t>
+  </si>
+  <si>
+    <t>git tag -1"v0.25*"</t>
+  </si>
+  <si>
+    <t>просмотр меток с фильтром (в примере выводит метки, которые начинаются с v0.25).</t>
+  </si>
+  <si>
+    <t>git tag -a v1.4 -m "comment"</t>
+  </si>
+  <si>
+    <t>cоздание аннотированной метки</t>
+  </si>
+  <si>
+    <t>git tag v1.4</t>
+  </si>
+  <si>
+    <t>cоздание легковесной метки</t>
+  </si>
+  <si>
+    <t>git tag -a v1.2 9fceb02</t>
+  </si>
+  <si>
+    <t>для добавления метки в прошлый коммит, для отметки коммита в который ставится метка нужно указать его контрольную сумму (или её часть) в конце команды</t>
+  </si>
+  <si>
+    <t>git show v1.4</t>
+  </si>
+  <si>
+    <t>пpосмотр данныx метки вместе с коммитом, который был помечен</t>
+  </si>
+  <si>
+    <t>git push origin v1.5</t>
+  </si>
+  <si>
+    <t>отправить метку на общий сервер</t>
+  </si>
+  <si>
+    <t>git push origin --tags</t>
+  </si>
+  <si>
+    <t>отправить все метки на общий сервер</t>
+  </si>
+  <si>
+    <t>git config --global alias.co checkout</t>
+  </si>
+  <si>
+    <t>создание псевдонима для команды (со псевдоним для команды checkout)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,6 +347,21 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -35,7 +372,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -43,12 +380,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -345,9 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -371,13 +727,357 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30">
+      <c r="A35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="45">
+      <c r="A38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/q.xlsx
+++ b/q.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
+    <sheet name="1" sheetId="2" r:id="rId1"/>
     <sheet name="Лист3" sheetId="3" r:id="rId2"/>
     <sheet name="commands of Git" sheetId="1" r:id="rId3"/>
   </sheets>
@@ -703,7 +703,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -729,7 +731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
